--- a/trades.xlsx
+++ b/trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,394 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0727362</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.057048</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07487000000000001</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:18</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0727566</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.057064</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07489</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:22</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0699034</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08559600000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06777</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:24</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0698838</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.085572</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06775</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:26</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0727362</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.057048</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07487000000000001</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:27</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0698838</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.085572</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.06777</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.06775</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.999999999999225e-05</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:27</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:01:57</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0:00:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0727362</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.057048</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.07487000000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.06777</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.007100000000000009</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:03:26</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:03:29</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0698838</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.085572</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06775</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.07487000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.007120000000000001</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:03:31</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:03:34</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trades.xlsx
+++ b/trades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,206 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0727566</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.057064</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07489</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:15:52</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0699034</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08559600000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06777</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:15:59</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0727464</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.057056</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07488</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.07488</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:16:34</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-05-27 09:17:25</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Market</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.072879</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05716</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.07502</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.06788</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.007140000000000007</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2023-05-27 10:32:49</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-05-27 10:32:55</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0:00:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
